--- a/biology/Médecine/Gian_Giacomo_Adria/Gian_Giacomo_Adria.xlsx
+++ b/biology/Médecine/Gian_Giacomo_Adria/Gian_Giacomo_Adria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gian Giacomo Adria ou Adria Johannes Jacobus de Paulo (né à Mazara del Vallo en Sicile circa 1485 – mort à Palerme en 1560) est un médecin, un historien et un humaniste italien.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il effectue ses premières études à Mazara del Vallo avec l'humaniste Tommaso Schifaldo (d)[1], puis s'installe à Palerme, où il étudie la rhétorique. Il se rend ensuite à Naples où il travaille avec Agostino Nifo.
-Le 29 juin 1510 il obtient le diplôme de docteur en philosophie et de médecine de Salerne[1]. Il commence à exercer la profession médicale en Sicile.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il effectue ses premières études à Mazara del Vallo avec l'humaniste Tommaso Schifaldo (d), puis s'installe à Palerme, où il étudie la rhétorique. Il se rend ensuite à Naples où il travaille avec Agostino Nifo.
+Le 29 juin 1510 il obtient le diplôme de docteur en philosophie et de médecine de Salerne. Il commence à exercer la profession médicale en Sicile.
 En 1535, il participe à la conquête de Tunis comme médecin et fait chevalier d'Empire par Charles Quint le 1er mars 1535. De retour à Rome, il apporte ses soins au pape Clément VII. Il est nommé Protomedicus[Note 1] de Sicile.
-Il meurt à l'âge de 75 ans à Palerme[1] où il est enterré dans l'église Saint-François-d'Assise (Palerme) (it), où l'on peut lire l'épitaphe suivante :
+Il meurt à l'âge de 75 ans à Palerme où il est enterré dans l'église Saint-François-d'Assise (Palerme) (it), où l'on peut lire l'épitaphe suivante :
 « Hic jacet in suo sepulcro excellens Artium, et Medicinae Doctor Johannes Jacobus Adria de Paulo Siculus et Mazariensis Miles, et Medicus Imperialis, Siciliae Protomedicus, et concivis Panormitanus anno 1560. »
 </t>
         </is>
@@ -546,29 +560,134 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il a écrit plusieurs œuvres à caractère historico-scientifique, littéraire et poétique.
-Œuvres scientifiques
-De fluminibus Selinunti et Mazaro, 1513.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a écrit plusieurs œuvres à caractère historico-scientifique, littéraire et poétique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gian_Giacomo_Adria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gian_Giacomo_Adria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Œuvres scientifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>De fluminibus Selinunti et Mazaro, 1513.
 Topographiae inclitae Civitatis Mazariae, Palermo, Johan et Antonium Papam, 1515.
 De laudibus Siciliae et primo de Valle Mazariae, 1535.
 De praeservatione pestilentiae ad Antonium filium.
 De Phlebotomia ad Carolum Imperatorem.
 De Balneis sicilis ad Antonium filium.
 De Medicinis ad varios morbos hominum.
-De vita sanctorum Martyrum mazariensium.
-Œuvres littéraires
-De laudibus virtutis, 1515.
+De vita sanctorum Martyrum mazariensium.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gian_Giacomo_Adria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gian_Giacomo_Adria</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Œuvres littéraires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>De laudibus virtutis, 1515.
 Epistola ad coniugem, Palermo, Antonium de Mayda, 1516.
 Epistola versu elegiaco ad coniugem Antoniam Scherinam, 1528.
 De laudibus Christi contra haereticos, 1529.
 In libellum de laudibus Christi explanatio, 1538.
 Liber de passione Christi, 1538.
 Historia Sicula M.S..
-Legenda SS. Viti, Modesti, et Crescentiae ad Mazariensis.
-Manuscrits
-Les manuscrits suivants sont conservés à la Bibliothèque municipale de Palerme :
+Legenda SS. Viti, Modesti, et Crescentiae ad Mazariensis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gian_Giacomo_Adria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gian_Giacomo_Adria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Manuscrits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les manuscrits suivants sont conservés à la Bibliothèque municipale de Palerme :
 De situ vallis Mazariae ad Hectorem Pignatelli Proregem.
 Litoralia Siciliae de Peloro ad Lylibaeum.</t>
         </is>
